--- a/assets/template/Template_Iuran.xlsx
+++ b/assets/template/Template_Iuran.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inkopkar\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA4E3A6-D941-474F-AAAF-A21F76353BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690D3F27-49C1-4420-8BDA-9B5B44C6E05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E8CD1E3-45E7-4754-8C58-5E9B6364AB8C}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{2E8CD1E3-45E7-4754-8C58-5E9B6364AB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nominal</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Nomor Induk Koperasi</t>
+  </si>
+  <si>
+    <t>Bandes-R-00001</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,8 +530,8 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="5">
         <v>200000</v>
